--- a/C语言课程讲义_笔记/B站鹏哥/2024_8_23 P96 初阶测评.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_8_23 P96 初阶测评.xlsx
@@ -11,13 +11,66 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库函数都是后来的人总结写出来的，相当于公共轮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始的语言里面不包含库函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/2是整数除法！！！，把1.5的.5抹了，是1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这里的y=123是赋值，多次强调了=和==的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|按位或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +85,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -70,6 +138,961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170889</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="257175"/>
+          <a:ext cx="4485714" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56495</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="314325"/>
+          <a:ext cx="5238095" cy="6952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656833</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>18657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="8877300"/>
+          <a:ext cx="3133333" cy="3142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485171</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="12344400"/>
+          <a:ext cx="4828571" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428255</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>85313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="15478125"/>
+          <a:ext cx="2961905" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409108</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="19059525"/>
+          <a:ext cx="3733333" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665999</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>28323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="24584025"/>
+          <a:ext cx="6009524" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>656623</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>75926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="27031950"/>
+          <a:ext cx="4819048" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8873</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>75918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="29537025"/>
+          <a:ext cx="5219048" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342181</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>85483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="32099250"/>
+          <a:ext cx="5752381" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47134</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>104359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="34671000"/>
+          <a:ext cx="3923809" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247114</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>28426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13106400" y="32442150"/>
+          <a:ext cx="4285714" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199317</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>66418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="38642925"/>
+          <a:ext cx="5666667" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313792</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>85421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="41376600"/>
+          <a:ext cx="4266667" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>599408</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>114029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14468475" y="38404800"/>
+          <a:ext cx="5333333" cy="2171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341917</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>28283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="44329350"/>
+          <a:ext cx="7866667" cy="2333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>351733</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>104489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="47024925"/>
+          <a:ext cx="5533333" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475756</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>104471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="49968150"/>
+          <a:ext cx="3952381" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342625</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>37975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="47558325"/>
+          <a:ext cx="2200000" cy="1000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151236</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>8721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="52901850"/>
+          <a:ext cx="9314286" cy="6428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>84336</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>37244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="53025675"/>
+          <a:ext cx="11114286" cy="6847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189988</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>170894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="60188475"/>
+          <a:ext cx="4095238" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228039</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>66179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="60731400"/>
+          <a:ext cx="4485714" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>151183</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>122993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="65989200"/>
+          <a:ext cx="9733333" cy="6657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>437542</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>160898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658475" y="65665350"/>
+          <a:ext cx="4866667" cy="8219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +1382,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="I13:R296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="P290" sqref="P290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K192" t="s">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="O193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N229" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="K245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="11:12" x14ac:dyDescent="0.15">
+      <c r="L247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="15:18" x14ac:dyDescent="0.15">
+      <c r="O264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R264" t="e">
+        <f>++优先级高些,先p++再*p,加到了地址上</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="278" spans="13:14" x14ac:dyDescent="0.15">
+      <c r="M278" t="s">
+        <v>4</v>
+      </c>
+      <c r="N278" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
